--- a/폐기물_데이터_업로더/폐기물데이터_xlsx/생활(가정)폐기물발생량/2022_완료/부산/생활(가정)폐기물발생량_2022_부산_중구.xlsx
+++ b/폐기물_데이터_업로더/폐기물데이터_xlsx/생활(가정)폐기물발생량/2022_완료/부산/생활(가정)폐기물발생량_2022_부산_중구.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungmanCho\Desktop\폐기물_코드\폐기물데이터_xls\생활(가정)폐기물발생량\2022\부산\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\React_Project\폐기물_데이터_업로더\폐기물데이터_xls\생활(가정)폐기물발생량\2022\부산\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00270B5C-F357-4B95-B728-94DEC8C80230}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD243D0-560A-4591-B3A5-55DF64F686D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525"/>
   </bookViews>
@@ -4145,6 +4145,5 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>